--- a/Android/Document/CM/任务发布表/Android-第三期-CM.xlsx
+++ b/Android/Document/CM/任务发布表/Android-第三期-CM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>重新学习了ActionBar的详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮按下会有颜色变化效果；tabhost实现滑动切换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能，增加交互友好性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮按下颜色变化实现；tabhost暂未实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabhost滑动切换涉及到其他组件，待重构代码之后可以实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看论坛，看Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,20 +336,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -651,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,14 +690,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -685,11 +709,11 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -701,11 +725,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1.3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -737,23 +761,23 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -771,31 +795,31 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -807,117 +831,123 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5">
+        <v>42307</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -927,7 +957,9 @@
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -937,7 +969,9 @@
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -947,7 +981,9 @@
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -957,7 +993,9 @@
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -967,26 +1005,14 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="D5:F5"/>
@@ -1000,6 +1026,18 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1018,14 +1056,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1035,9 +1073,9 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1047,9 +1085,9 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1073,19 +1111,19 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -1101,29 +1139,29 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1133,87 +1171,87 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1223,81 +1261,78 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1308,12 +1343,15 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
